--- a/7/2/1/2/Gobierno general 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/1/2/Gobierno general 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Serie</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3855,43 +3858,87 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C74">
         <v>-210</v>
       </c>
       <c r="D74">
-        <v>9984</v>
+        <v>10214</v>
       </c>
       <c r="E74">
         <v>-1299</v>
       </c>
       <c r="F74">
-        <v>-1180</v>
+        <v>-1165</v>
       </c>
       <c r="G74">
-        <v>7905</v>
+        <v>8151</v>
       </c>
       <c r="H74">
         <v>4657</v>
       </c>
       <c r="I74">
-        <v>3249</v>
+        <v>3494</v>
       </c>
       <c r="J74">
-        <v>3351</v>
+        <v>3340</v>
       </c>
       <c r="K74">
-        <v>-102</v>
+        <v>154</v>
       </c>
       <c r="L74">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M74">
-        <v>-269</v>
+        <v>-281</v>
       </c>
       <c r="N74">
-        <v>-1044</v>
+        <v>-802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75">
+        <v>629</v>
+      </c>
+      <c r="C75">
+        <v>-43</v>
+      </c>
+      <c r="D75">
+        <v>10250</v>
+      </c>
+      <c r="E75">
+        <v>-1327</v>
+      </c>
+      <c r="F75">
+        <v>-4352</v>
+      </c>
+      <c r="G75">
+        <v>5158</v>
+      </c>
+      <c r="H75">
+        <v>5186</v>
+      </c>
+      <c r="I75">
+        <v>-28</v>
+      </c>
+      <c r="J75">
+        <v>3309</v>
+      </c>
+      <c r="K75">
+        <v>-3336</v>
+      </c>
+      <c r="L75">
+        <v>982</v>
+      </c>
+      <c r="M75">
+        <v>-708</v>
+      </c>
+      <c r="N75">
+        <v>-5026</v>
       </c>
     </row>
   </sheetData>
